--- a/classification/droptc/sentence/bert-base-uncased/freeze/43782163/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/43782163/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7572625875473022</v>
+        <v>0.9480058550834656</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.830852210521698</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7115304470062256</v>
+        <v>0.6110649704933167</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7729426026344299</v>
+        <v>0.5519109964370728</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.670378565788269</v>
+        <v>0.993766188621521</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8183494210243225</v>
+        <v>0.9061436653137207</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.9896405339241028</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7886982560157776</v>
+        <v>0.9951754808425903</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4525732398033142</v>
+        <v>0.9896405339241028</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6676356196403503</v>
+        <v>0.9529877305030823</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5779106616973877</v>
+        <v>0.9657061100006104</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9055586457252502</v>
+        <v>0.9654630422592163</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.9553858637809753</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6676413416862488</v>
+        <v>0.6318444609642029</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8426885604858398</v>
+        <v>0.8764523863792419</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8536416888237</v>
+        <v>0.9657590389251709</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7520998120307922</v>
+        <v>0.5810865759849548</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7197227478027344</v>
+        <v>0.9941779375076294</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8643407225608826</v>
+        <v>0.9162391424179077</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7316878437995911</v>
+        <v>0.9805043339729309</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6474347114562988</v>
+        <v>0.9799781441688538</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8261730670928955</v>
+        <v>0.9699313044548035</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.887042760848999</v>
+        <v>0.9385255575180054</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6040300130844116</v>
+        <v>0.521558403968811</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6946407556533813</v>
+        <v>0.3253438472747803</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7569430470466614</v>
+        <v>0.79974365234375</v>
       </c>
     </row>
     <row r="28">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4871566891670227</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5079734921455383</v>
+        <v>0.8033545613288879</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7276368141174316</v>
+        <v>0.951429009437561</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8875292539596558</v>
+        <v>0.9431366324424744</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8980190753936768</v>
+        <v>0.6679728627204895</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7139591574668884</v>
+        <v>0.6479595303535461</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6932846903800964</v>
+        <v>0.7097892165184021</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7479217052459717</v>
+        <v>0.9463840126991272</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3234939873218536</v>
+        <v>0.9600332975387573</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6149730682373047</v>
+        <v>0.8975520133972168</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5863671898841858</v>
+        <v>0.8642469048500061</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7234017848968506</v>
+        <v>0.7863968014717102</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7852182984352112</v>
+        <v>0.4135183691978455</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7630411386489868</v>
+        <v>0.9780008792877197</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8604245781898499</v>
+        <v>0.7959878444671631</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4540173411369324</v>
+        <v>0.7091332077980042</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8009985089302063</v>
+        <v>0.9711065888404846</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8065470457077026</v>
+        <v>0.849248468875885</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4577254951000214</v>
+        <v>0.8920246958732605</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5848984718322754</v>
+        <v>0.4228541553020477</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4798756241798401</v>
+        <v>0.9270312786102295</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5721993446350098</v>
+        <v>0.9967339038848877</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.8966027498245239</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6329094767570496</v>
+        <v>0.2858869135379791</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3603076636791229</v>
+        <v>0.9127960205078125</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3250389695167542</v>
+        <v>0.8966027498245239</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3335991203784943</v>
+        <v>0.5498010516166687</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7329769134521484</v>
+        <v>0.9902680516242981</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6596649885177612</v>
+        <v>0.9984883069992065</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7135034799575806</v>
+        <v>0.9989056587219238</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6349347829818726</v>
+        <v>0.8542795777320862</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7026803493499756</v>
+        <v>0.9032486081123352</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.894618034362793</v>
+        <v>0.9607310891151428</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4502192139625549</v>
+        <v>0.8923301100730896</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6289933919906616</v>
+        <v>0.9919033646583557</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9065392017364502</v>
+        <v>0.6912592053413391</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.750389039516449</v>
+        <v>0.3564481437206268</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4604215025901794</v>
+        <v>0.8709200620651245</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6300850510597229</v>
+        <v>0.8709200620651245</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8841716647148132</v>
+        <v>0.4899580478668213</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5892249941825867</v>
+        <v>0.8709200620651245</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3293885886669159</v>
+        <v>0.5750525593757629</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7219097018241882</v>
+        <v>0.9737352132797241</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6225104928016663</v>
+        <v>0.4805415272712708</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6106349229812622</v>
+        <v>0.9755076766014099</v>
       </c>
     </row>
     <row r="73">
@@ -2471,14 +2471,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4113411009311676</v>
+        <v>0.9733598828315735</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.613984227180481</v>
+        <v>0.8744851350784302</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4068809747695923</v>
+        <v>0.5886999368667603</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9025696516036987</v>
+        <v>0.9733598828315735</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5051565170288086</v>
+        <v>0.9377061724662781</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7474490404129028</v>
+        <v>0.9733598828315735</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6699420809745789</v>
+        <v>0.9927874207496643</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8116202354431152</v>
+        <v>0.9203980565071106</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7704923748970032</v>
+        <v>0.6199463605880737</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7764531970024109</v>
+        <v>0.9203980565071106</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6670147776603699</v>
+        <v>0.9468078017234802</v>
       </c>
     </row>
     <row r="84">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7145923972129822</v>
+        <v>0.9468078017234802</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4798756241798401</v>
+        <v>0.992892861366272</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6149730682373047</v>
+        <v>0.8066841959953308</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.8345822095870972</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4326903820037842</v>
+        <v>0.901233434677124</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9290635585784912</v>
+        <v>0.9805368185043335</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4347002804279327</v>
+        <v>0.9635751843452454</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.448732316493988</v>
+        <v>0.9669086933135986</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9054011702537537</v>
+        <v>0.9690537452697754</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.826230525970459</v>
+        <v>0.9752281308174133</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3692517280578613</v>
+        <v>0.9790441393852234</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6297100186347961</v>
+        <v>0.9718108177185059</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.684429407119751</v>
+        <v>0.5345996022224426</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4205052852630615</v>
+        <v>0.3584044575691223</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7056111097335815</v>
+        <v>0.9812144041061401</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.411188542842865</v>
+        <v>0.3177218437194824</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5560147762298584</v>
+        <v>0.9404816031455994</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8225346207618713</v>
+        <v>0.9578315019607544</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8281593322753906</v>
+        <v>0.3286069929599762</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.9841668605804443</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8326891660690308</v>
+        <v>0.9376760125160217</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.4368871748447418</v>
+        <v>0.9446693658828735</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6832525730133057</v>
+        <v>0.6125526428222656</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6098793745040894</v>
+        <v>0.5262942910194397</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4722347855567932</v>
+        <v>0.6165347099304199</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2675534188747406</v>
+        <v>0.7007393836975098</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6924256682395935</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5741336941719055</v>
+        <v>0.4537687599658966</v>
       </c>
     </row>
     <row r="112">
@@ -3563,14 +3563,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3836792409420013</v>
+        <v>0.5776211023330688</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8168018460273743</v>
+        <v>0.8943870067596436</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.719237208366394</v>
+        <v>0.8006824254989624</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6007895469665527</v>
+        <v>0.4279725253582001</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8551344275474548</v>
+        <v>0.8144054412841797</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9306766986846924</v>
+        <v>0.9559144377708435</v>
       </c>
     </row>
     <row r="118">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6020289659500122</v>
+        <v>0.5246521234512329</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4336284399032593</v>
+        <v>0.9479174613952637</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3603076636791229</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9036923050880432</v>
+        <v>0.9351265430450439</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7096983790397644</v>
+        <v>0.9912096261978149</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.483451247215271</v>
+        <v>0.9351265430450439</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.650809645652771</v>
+        <v>0.9912096261978149</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3257726430892944</v>
+        <v>0.9351265430450439</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7803940176963806</v>
+        <v>0.9986189603805542</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7725760340690613</v>
+        <v>0.5855673551559448</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7480043172836304</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.683111846446991</v>
+        <v>0.958922803401947</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5968967080116272</v>
+        <v>0.9132974743843079</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8768600821495056</v>
+        <v>0.9916178584098816</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8641713261604309</v>
+        <v>0.4677949845790863</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3972623348236084</v>
+        <v>0.9932087063789368</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6850827932357788</v>
+        <v>0.499774843454361</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8194557428359985</v>
+        <v>0.8563823699951172</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9269992113113403</v>
+        <v>0.4887208044528961</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5369880795478821</v>
+        <v>0.9955079555511475</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6096773743629456</v>
+        <v>0.9487400650978088</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8769168257713318</v>
+        <v>0.9962188601493835</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.566434919834137</v>
+        <v>0.9587340950965881</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7668061852455139</v>
+        <v>0.8555145859718323</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6452476382255554</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.656512975692749</v>
+        <v>0.6780589818954468</v>
       </c>
     </row>
     <row r="144">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6323760747909546</v>
+        <v>0.9853597283363342</v>
       </c>
     </row>
     <row r="145">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3692517280578613</v>
+        <v>0.6780589818954468</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.2876387238502502</v>
+        <v>0.9721459746360779</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.4196117222309113</v>
+        <v>0.5750525593757629</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8211846351623535</v>
+        <v>0.9713160395622253</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8561201095581055</v>
+        <v>0.5642869472503662</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.4254692196846008</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4167749583721161</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4695145487785339</v>
+        <v>0.5687715411186218</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4502192139625549</v>
+        <v>0.9890767335891724</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.813052773475647</v>
+        <v>0.7798724770545959</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6676356196403503</v>
+        <v>0.9838829636573792</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.3424660265445709</v>
+        <v>0.6899915337562561</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6565365195274353</v>
+        <v>0.9960017800331116</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.757706344127655</v>
+        <v>0.942729115486145</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3335991203784943</v>
+        <v>0.9983906745910645</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.7808938026428223</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.7023041844367981</v>
+        <v>0.9133899211883545</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9269992113113403</v>
+        <v>0.8515990376472473</v>
       </c>
     </row>
     <row r="163">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7007015347480774</v>
+        <v>0.4189210832118988</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7205423712730408</v>
+        <v>0.7647240161895752</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5142314434051514</v>
+        <v>0.9101569652557373</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7163371443748474</v>
+        <v>0.9113074541091919</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4768305420875549</v>
+        <v>0.445162445306778</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6676356196403503</v>
+        <v>0.3831958472728729</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.6853460073471069</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.694556713104248</v>
+        <v>0.445162445306778</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.637252151966095</v>
+        <v>0.4972451329231262</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7335979342460632</v>
+        <v>0.9963506460189819</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7675025463104248</v>
+        <v>0.9496827721595764</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7082768082618713</v>
+        <v>0.9597949385643005</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.4264516830444336</v>
+        <v>0.9496827721595764</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4540173411369324</v>
+        <v>0.9496827721595764</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.3836792409420013</v>
+        <v>0.9597949385643005</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5809267163276672</v>
+        <v>0.9975957274436951</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7689040899276733</v>
+        <v>0.9963167905807495</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3109133541584015</v>
+        <v>0.8392590284347534</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6830264925956726</v>
+        <v>0.4793871641159058</v>
       </c>
     </row>
     <row r="182">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5637372732162476</v>
+        <v>0.9879559874534607</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7569430470466614</v>
+        <v>0.3914837837219238</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5468030571937561</v>
+        <v>0.9866004586219788</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.8595994710922241</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5633649826049805</v>
+        <v>0.8829163908958435</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6435659527778625</v>
+        <v>0.9640030264854431</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4540173411369324</v>
+        <v>0.9792914986610413</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.5928381085395813</v>
+        <v>0.8003172278404236</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4530538320541382</v>
+        <v>0.8965041041374207</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7648987174034119</v>
+        <v>0.5314618945121765</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4057976305484772</v>
+        <v>0.9439290761947632</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.4061242938041687</v>
+        <v>0.9759809374809265</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7258907556533813</v>
+        <v>0.8134521842002869</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8205810189247131</v>
+        <v>0.5319920182228088</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5291898846626282</v>
+        <v>0.9908276200294495</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.8378967046737671</v>
+        <v>0.9837440848350525</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5651448369026184</v>
+        <v>0.9281387329101562</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.411188542842865</v>
+        <v>0.9924973249435425</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3574464023113251</v>
+        <v>0.6450052261352539</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3603076636791229</v>
+        <v>0.986104428768158</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9577378034591675</v>
+        <v>0.9815871119499207</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8631787300109863</v>
+        <v>0.8496475219726562</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6908208131790161</v>
+        <v>0.315972775220871</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9001272320747375</v>
+        <v>0.551929771900177</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4798756241798401</v>
+        <v>0.9977697134017944</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4156107306480408</v>
+        <v>0.4914030730724335</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.887042760848999</v>
+        <v>0.9941715598106384</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3378041982650757</v>
+        <v>0.4114047884941101</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4019034802913666</v>
+        <v>0.9934753775596619</v>
       </c>
     </row>
   </sheetData>
